--- a/TestData/Candidate_Details.xlsx
+++ b/TestData/Candidate_Details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProjectfromgit\Team2_OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B1478-A60F-4100-9575-E812BE5CDBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D487124-A01D-420E-B635-7B5362EA981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Candidate" sheetId="1" r:id="rId1"/>
@@ -25,58 +25,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Job_Title</t>
-  </si>
-  <si>
-    <t>Vacancy</t>
-  </si>
-  <si>
-    <t>Hiring_Manager</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Candidate_Name</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Date_Of_Application</t>
-  </si>
-  <si>
-    <t>Date_Of_Application_To</t>
-  </si>
-  <si>
-    <t>Hiring Manager</t>
-  </si>
-  <si>
-    <t>Account Assistant</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rahul Patil</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>${Job_Title}</t>
+  </si>
+  <si>
+    <t>${Vacancy}</t>
+  </si>
+  <si>
+    <t>${Hiring_Manager}</t>
+  </si>
+  <si>
+    <t>${Status}</t>
+  </si>
+  <si>
+    <t>${Candidate_Name}</t>
+  </si>
+  <si>
+    <t>${Keywords}</t>
+  </si>
+  <si>
+    <t>${Date_Of_Application}</t>
+  </si>
+  <si>
+    <t>${Date_Of_Application_To}</t>
+  </si>
+  <si>
+    <t>Payroll Administrator</t>
+  </si>
+  <si>
+    <t>${Method_Of_Application}</t>
+  </si>
+  <si>
+    <t>Hello World! --</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF38455D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,8 +111,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,63 +407,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6">
+        <v>45445</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/Candidate_Details.xlsx
+++ b/TestData/Candidate_Details.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D487124-A01D-420E-B635-7B5362EA981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06211611-6389-4783-8B75-EFDA14BDD124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Candidate" sheetId="1" r:id="rId1"/>
+    <sheet name="candidate" sheetId="1" r:id="rId1"/>
+    <sheet name="vacancy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>${Job_Title}</t>
-  </si>
-  <si>
     <t>${Vacancy}</t>
   </si>
   <si>
@@ -54,13 +52,19 @@
     <t>${Date_Of_Application_To}</t>
   </si>
   <si>
-    <t>Payroll Administrator</t>
-  </si>
-  <si>
     <t>${Method_Of_Application}</t>
   </si>
   <si>
-    <t>Hello World! --</t>
+    <t>Senior QA Lead</t>
+  </si>
+  <si>
+    <t>${Hirirng Manager}</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Rahul Patil</t>
   </si>
 </sst>
 </file>
@@ -68,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -111,18 +115,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -405,73 +405,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4">
+        <v>45445</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDE41C8-C245-42AD-A998-A2473DC0C8B8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6">
-        <v>45445</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
